--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Fgf1-Fgfr4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Fgf1-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>Fgfr4</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.637062005138087</v>
+        <v>0.6681369999999999</v>
       </c>
       <c r="H2">
-        <v>0.637062005138087</v>
+        <v>2.004411</v>
       </c>
       <c r="I2">
-        <v>0.2985401235340233</v>
+        <v>0.2616527449564177</v>
       </c>
       <c r="J2">
-        <v>0.2985401235340233</v>
+        <v>0.2616527449564178</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7447737379371751</v>
+        <v>0.8372556666666666</v>
       </c>
       <c r="N2">
-        <v>0.7447737379371751</v>
+        <v>2.511767</v>
       </c>
       <c r="O2">
-        <v>0.05229850941404422</v>
+        <v>0.04323017762831461</v>
       </c>
       <c r="P2">
-        <v>0.05229850941404422</v>
+        <v>0.04323017762831462</v>
       </c>
       <c r="Q2">
-        <v>0.4744670508644449</v>
+        <v>0.5594014893596665</v>
       </c>
       <c r="R2">
-        <v>0.4744670508644449</v>
+        <v>5.034613404236999</v>
       </c>
       <c r="S2">
-        <v>0.01561320346111404</v>
+        <v>0.01131129464140204</v>
       </c>
       <c r="T2">
-        <v>0.01561320346111404</v>
+        <v>0.01131129464140204</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,309 +587,929 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.637062005138087</v>
+        <v>0.6681369999999999</v>
       </c>
       <c r="H3">
-        <v>0.637062005138087</v>
+        <v>2.004411</v>
       </c>
       <c r="I3">
-        <v>0.2985401235340233</v>
+        <v>0.2616527449564177</v>
       </c>
       <c r="J3">
-        <v>0.2985401235340233</v>
+        <v>0.2616527449564178</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>13.4960477746005</v>
+        <v>0.110372</v>
       </c>
       <c r="N3">
-        <v>13.4960477746005</v>
+        <v>0.331116</v>
       </c>
       <c r="O3">
-        <v>0.9477014905859558</v>
+        <v>0.005698858013333649</v>
       </c>
       <c r="P3">
-        <v>0.9477014905859558</v>
+        <v>0.00569885801333365</v>
       </c>
       <c r="Q3">
-        <v>8.59781925672641</v>
+        <v>0.07374361696399998</v>
       </c>
       <c r="R3">
-        <v>8.59781925672641</v>
+        <v>0.6636925526759998</v>
       </c>
       <c r="S3">
-        <v>0.2829269200729093</v>
+        <v>0.001491121842305626</v>
       </c>
       <c r="T3">
-        <v>0.2829269200729093</v>
+        <v>0.001491121842305627</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.841166550712024</v>
+        <v>0.6681369999999999</v>
       </c>
       <c r="H4">
-        <v>0.841166550712024</v>
+        <v>2.004411</v>
       </c>
       <c r="I4">
-        <v>0.3941876362691316</v>
+        <v>0.2616527449564177</v>
       </c>
       <c r="J4">
-        <v>0.3941876362691316</v>
+        <v>0.2616527449564178</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.7447737379371751</v>
+        <v>0.01411566666666667</v>
       </c>
       <c r="N4">
-        <v>0.7447737379371751</v>
+        <v>0.042347</v>
       </c>
       <c r="O4">
-        <v>0.05229850941404422</v>
+        <v>0.0007288368435552497</v>
       </c>
       <c r="P4">
-        <v>0.05229850941404422</v>
+        <v>0.0007288368435552499</v>
       </c>
       <c r="Q4">
-        <v>0.6264787562015144</v>
+        <v>0.009431199179666665</v>
       </c>
       <c r="R4">
-        <v>0.6264787562015144</v>
+        <v>0.08488079261699999</v>
       </c>
       <c r="S4">
-        <v>0.02061542580632102</v>
+        <v>0.0001907021607416023</v>
       </c>
       <c r="T4">
-        <v>0.02061542580632102</v>
+        <v>0.0001907021607416024</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.841166550712024</v>
+        <v>0.6681369999999999</v>
       </c>
       <c r="H5">
-        <v>0.841166550712024</v>
+        <v>2.004411</v>
       </c>
       <c r="I5">
-        <v>0.3941876362691316</v>
+        <v>0.2616527449564177</v>
       </c>
       <c r="J5">
-        <v>0.3941876362691316</v>
+        <v>0.2616527449564178</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.4960477746005</v>
+        <v>18.40564566666667</v>
       </c>
       <c r="N5">
-        <v>13.4960477746005</v>
+        <v>55.216937</v>
       </c>
       <c r="O5">
-        <v>0.9477014905859558</v>
+        <v>0.9503421275147964</v>
       </c>
       <c r="P5">
-        <v>0.9477014905859558</v>
+        <v>0.9503421275147965</v>
       </c>
       <c r="Q5">
-        <v>11.35242395480539</v>
+        <v>12.29749287878967</v>
       </c>
       <c r="R5">
-        <v>11.35242395480539</v>
+        <v>110.677435909107</v>
       </c>
       <c r="S5">
-        <v>0.3735722104628106</v>
+        <v>0.2486596263119684</v>
       </c>
       <c r="T5">
-        <v>0.3735722104628106</v>
+        <v>0.2486596263119685</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.655695680519691</v>
+        <v>1.003400666666667</v>
       </c>
       <c r="H6">
-        <v>0.655695680519691</v>
+        <v>3.010202</v>
       </c>
       <c r="I6">
-        <v>0.3072722401968451</v>
+        <v>0.3929471631183917</v>
       </c>
       <c r="J6">
-        <v>0.3072722401968451</v>
+        <v>0.3929471631183917</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7447737379371751</v>
+        <v>0.8372556666666666</v>
       </c>
       <c r="N6">
-        <v>0.7447737379371751</v>
+        <v>2.511767</v>
       </c>
       <c r="O6">
-        <v>0.05229850941404422</v>
+        <v>0.04323017762831461</v>
       </c>
       <c r="P6">
-        <v>0.05229850941404422</v>
+        <v>0.04323017762831462</v>
       </c>
       <c r="Q6">
-        <v>0.48834492292991</v>
+        <v>0.8401028941037777</v>
       </c>
       <c r="R6">
-        <v>0.48834492292991</v>
+        <v>7.560926046933998</v>
       </c>
       <c r="S6">
-        <v>0.01606988014660916</v>
+        <v>0.01698717566015039</v>
       </c>
       <c r="T6">
-        <v>0.01606988014660916</v>
+        <v>0.01698717566015039</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.003400666666667</v>
+      </c>
+      <c r="H7">
+        <v>3.010202</v>
+      </c>
+      <c r="I7">
+        <v>0.3929471631183917</v>
+      </c>
+      <c r="J7">
+        <v>0.3929471631183917</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.110372</v>
+      </c>
+      <c r="N7">
+        <v>0.331116</v>
+      </c>
+      <c r="O7">
+        <v>0.005698858013333649</v>
+      </c>
+      <c r="P7">
+        <v>0.00569885801333365</v>
+      </c>
+      <c r="Q7">
+        <v>0.1107473383813333</v>
+      </c>
+      <c r="R7">
+        <v>0.9967260454319997</v>
+      </c>
+      <c r="S7">
+        <v>0.002239350089353971</v>
+      </c>
+      <c r="T7">
+        <v>0.002239350089353972</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.003400666666667</v>
+      </c>
+      <c r="H8">
+        <v>3.010202</v>
+      </c>
+      <c r="I8">
+        <v>0.3929471631183917</v>
+      </c>
+      <c r="J8">
+        <v>0.3929471631183917</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.01411566666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.042347</v>
+      </c>
+      <c r="O8">
+        <v>0.0007288368435552497</v>
+      </c>
+      <c r="P8">
+        <v>0.0007288368435552499</v>
+      </c>
+      <c r="Q8">
+        <v>0.01416366934377778</v>
+      </c>
+      <c r="R8">
+        <v>0.127473024094</v>
+      </c>
+      <c r="S8">
+        <v>0.0002863943700511984</v>
+      </c>
+      <c r="T8">
+        <v>0.0002863943700511985</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.003400666666667</v>
+      </c>
+      <c r="H9">
+        <v>3.010202</v>
+      </c>
+      <c r="I9">
+        <v>0.3929471631183917</v>
+      </c>
+      <c r="J9">
+        <v>0.3929471631183917</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>18.40564566666667</v>
+      </c>
+      <c r="N9">
+        <v>55.216937</v>
+      </c>
+      <c r="O9">
+        <v>0.9503421275147964</v>
+      </c>
+      <c r="P9">
+        <v>0.9503421275147965</v>
+      </c>
+      <c r="Q9">
+        <v>18.46823713236378</v>
+      </c>
+      <c r="R9">
+        <v>166.214134191274</v>
+      </c>
+      <c r="S9">
+        <v>0.3734342429988361</v>
+      </c>
+      <c r="T9">
+        <v>0.3734342429988362</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.02002233333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.060067</v>
+      </c>
+      <c r="I10">
+        <v>0.007841054270455084</v>
+      </c>
+      <c r="J10">
+        <v>0.007841054270455085</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.8372556666666666</v>
+      </c>
+      <c r="N10">
+        <v>2.511767</v>
+      </c>
+      <c r="O10">
+        <v>0.04323017762831461</v>
+      </c>
+      <c r="P10">
+        <v>0.04323017762831462</v>
+      </c>
+      <c r="Q10">
+        <v>0.01676381204322222</v>
+      </c>
+      <c r="R10">
+        <v>0.150874308389</v>
+      </c>
+      <c r="S10">
+        <v>0.0003389701689050281</v>
+      </c>
+      <c r="T10">
+        <v>0.0003389701689050282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.02002233333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.060067</v>
+      </c>
+      <c r="I11">
+        <v>0.007841054270455084</v>
+      </c>
+      <c r="J11">
+        <v>0.007841054270455085</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.110372</v>
+      </c>
+      <c r="N11">
+        <v>0.331116</v>
+      </c>
+      <c r="O11">
+        <v>0.005698858013333649</v>
+      </c>
+      <c r="P11">
+        <v>0.00569885801333365</v>
+      </c>
+      <c r="Q11">
+        <v>0.002209904974666666</v>
+      </c>
+      <c r="R11">
+        <v>0.019889144772</v>
+      </c>
+      <c r="S11">
+        <v>4.468505496216698E-05</v>
+      </c>
+      <c r="T11">
+        <v>4.4685054962167E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.02002233333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.060067</v>
+      </c>
+      <c r="I12">
+        <v>0.007841054270455084</v>
+      </c>
+      <c r="J12">
+        <v>0.007841054270455085</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.01411566666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.042347</v>
+      </c>
+      <c r="O12">
+        <v>0.0007288368435552497</v>
+      </c>
+      <c r="P12">
+        <v>0.0007288368435552499</v>
+      </c>
+      <c r="Q12">
+        <v>0.0002826285832222222</v>
+      </c>
+      <c r="R12">
+        <v>0.002543657249</v>
+      </c>
+      <c r="S12">
+        <v>5.714849244623894E-06</v>
+      </c>
+      <c r="T12">
+        <v>5.714849244623898E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.02002233333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.060067</v>
+      </c>
+      <c r="I13">
+        <v>0.007841054270455084</v>
+      </c>
+      <c r="J13">
+        <v>0.007841054270455085</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>18.40564566666667</v>
+      </c>
+      <c r="N13">
+        <v>55.216937</v>
+      </c>
+      <c r="O13">
+        <v>0.9503421275147964</v>
+      </c>
+      <c r="P13">
+        <v>0.9503421275147965</v>
+      </c>
+      <c r="Q13">
+        <v>0.3685239727532222</v>
+      </c>
+      <c r="R13">
+        <v>3.316715754779</v>
+      </c>
+      <c r="S13">
+        <v>0.007451684197343264</v>
+      </c>
+      <c r="T13">
+        <v>0.007451684197343267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.655695680519691</v>
-      </c>
-      <c r="H7">
-        <v>0.655695680519691</v>
-      </c>
-      <c r="I7">
-        <v>0.3072722401968451</v>
-      </c>
-      <c r="J7">
-        <v>0.3072722401968451</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>13.4960477746005</v>
-      </c>
-      <c r="N7">
-        <v>13.4960477746005</v>
-      </c>
-      <c r="O7">
-        <v>0.9477014905859558</v>
-      </c>
-      <c r="P7">
-        <v>0.9477014905859558</v>
-      </c>
-      <c r="Q7">
-        <v>8.849300229892936</v>
-      </c>
-      <c r="R7">
-        <v>8.849300229892936</v>
-      </c>
-      <c r="S7">
-        <v>0.2912023600502359</v>
-      </c>
-      <c r="T7">
-        <v>0.2912023600502359</v>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.8619656666666667</v>
+      </c>
+      <c r="H14">
+        <v>2.585897</v>
+      </c>
+      <c r="I14">
+        <v>0.3375590376547354</v>
+      </c>
+      <c r="J14">
+        <v>0.3375590376547354</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.8372556666666666</v>
+      </c>
+      <c r="N14">
+        <v>2.511767</v>
+      </c>
+      <c r="O14">
+        <v>0.04323017762831461</v>
+      </c>
+      <c r="P14">
+        <v>0.04323017762831462</v>
+      </c>
+      <c r="Q14">
+        <v>0.7216856388887778</v>
+      </c>
+      <c r="R14">
+        <v>6.495170749999</v>
+      </c>
+      <c r="S14">
+        <v>0.01459273715785715</v>
+      </c>
+      <c r="T14">
+        <v>0.01459273715785716</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.8619656666666667</v>
+      </c>
+      <c r="H15">
+        <v>2.585897</v>
+      </c>
+      <c r="I15">
+        <v>0.3375590376547354</v>
+      </c>
+      <c r="J15">
+        <v>0.3375590376547354</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.110372</v>
+      </c>
+      <c r="N15">
+        <v>0.331116</v>
+      </c>
+      <c r="O15">
+        <v>0.005698858013333649</v>
+      </c>
+      <c r="P15">
+        <v>0.00569885801333365</v>
+      </c>
+      <c r="Q15">
+        <v>0.09513687456133332</v>
+      </c>
+      <c r="R15">
+        <v>0.8562318710519999</v>
+      </c>
+      <c r="S15">
+        <v>0.001923701026711884</v>
+      </c>
+      <c r="T15">
+        <v>0.001923701026711885</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.8619656666666667</v>
+      </c>
+      <c r="H16">
+        <v>2.585897</v>
+      </c>
+      <c r="I16">
+        <v>0.3375590376547354</v>
+      </c>
+      <c r="J16">
+        <v>0.3375590376547354</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.01411566666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.042347</v>
+      </c>
+      <c r="O16">
+        <v>0.0007288368435552497</v>
+      </c>
+      <c r="P16">
+        <v>0.0007288368435552499</v>
+      </c>
+      <c r="Q16">
+        <v>0.01216722002877778</v>
+      </c>
+      <c r="R16">
+        <v>0.109504980259</v>
+      </c>
+      <c r="S16">
+        <v>0.0002460254635178251</v>
+      </c>
+      <c r="T16">
+        <v>0.0002460254635178251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.8619656666666667</v>
+      </c>
+      <c r="H17">
+        <v>2.585897</v>
+      </c>
+      <c r="I17">
+        <v>0.3375590376547354</v>
+      </c>
+      <c r="J17">
+        <v>0.3375590376547354</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>18.40564566666667</v>
+      </c>
+      <c r="N17">
+        <v>55.216937</v>
+      </c>
+      <c r="O17">
+        <v>0.9503421275147964</v>
+      </c>
+      <c r="P17">
+        <v>0.9503421275147965</v>
+      </c>
+      <c r="Q17">
+        <v>15.86503463749878</v>
+      </c>
+      <c r="R17">
+        <v>142.785311737489</v>
+      </c>
+      <c r="S17">
+        <v>0.3207965740066486</v>
+      </c>
+      <c r="T17">
+        <v>0.3207965740066486</v>
       </c>
     </row>
   </sheetData>
